--- a/medicine/Psychotrope/Hasseröder/Hasseröder.xlsx
+++ b/medicine/Psychotrope/Hasseröder/Hasseröder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hasser%C3%B6der</t>
+          <t>Hasseröder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hasseröder est une brasserie et une marque de bière allemande produite à Wernigerode en Saxe-Anhalt. Elle appartient depuis 2002 au groupe AB InBev. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hasser%C3%B6der</t>
+          <t>Hasseröder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1872, la brasserie est fondée sous le nom de Zum Auerhahn (« coq de bruyère ») à Hasserode, aujourd'hui un quartier de Wernigerode, au pied des montagnes du Harz. Le 1er octobre 1882, Ernst Schreyer prit la direction de l'entreprise. La brasserie est transformée en société à responsabilité limitée en 1896. Cette année, 25 000 hectolitres de bière sortent de la brasserie.
 À l'époque de la RDA, la bière était une marque de bière populaire dans la région et principalement dans le district de Magdebourg. Avec la réunification allemande en 1990, la brasserie commence à devenir la marque de bière la plus consommée dans les nouveaux États de l'Allemagne de l'Est.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hasser%C3%B6der</t>
+          <t>Hasseröder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La gamme de produits de la brasserie comprend les produits suivants :
 Premium Pilsener : Pils avec un degré d'alcool de 4,9%
